--- a/Study 3/Shocks/GCAM/CP_EI - 2085.xlsx
+++ b/Study 3/Shocks/GCAM/CP_EI - 2085.xlsx
@@ -12442,7 +12442,7 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.04398656373642425</v>
+        <v>0.04398656373642426</v>
       </c>
     </row>
     <row r="29">
@@ -12922,7 +12922,7 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.208122079296679</v>
+        <v>0.2081220792966791</v>
       </c>
     </row>
     <row r="41">
